--- a/Rando-Database.xlsx
+++ b/Rando-Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Rando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F635829F-1BC2-48AB-9770-3402B3ED86B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D44828-93F1-485B-9BFC-B588BF5F1029}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{3F9D64B0-A0AA-4E60-949A-27AA127B1FCD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Sad</t>
   </si>
@@ -212,7 +212,10 @@
     <t>Anger</t>
   </si>
   <si>
-    <t>Column1</t>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
 </sst>
 </file>
@@ -256,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -288,11 +291,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -300,6 +312,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,7 +642,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +662,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -661,7 +676,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -838,10 +853,16 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
+      <c r="D18" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">

--- a/Rando-Database.xlsx
+++ b/Rando-Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Rando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D44828-93F1-485B-9BFC-B588BF5F1029}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5BF60D-924C-46E0-8567-348E5DE68D58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{3F9D64B0-A0AA-4E60-949A-27AA127B1FCD}"/>
   </bookViews>

--- a/Rando-Database.xlsx
+++ b/Rando-Database.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -399,17 +399,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>puppies</t>
+          <t>cake</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>attracted</t>
+          <t>bae</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>liptard</t>
+          <t>suck</t>
         </is>
       </c>
     </row>
@@ -419,22 +419,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>upset</t>
+          <t>dismay</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>cats</t>
+          <t>like</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>kiss</t>
+          <t>attractive</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>schmuck</t>
+          <t>bitch</t>
         </is>
       </c>
     </row>
@@ -444,22 +444,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>devastate</t>
+          <t>heartbreaking</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>like</t>
+          <t>puppies</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>honey</t>
+          <t>attracted</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fat</t>
+          <t>ass</t>
         </is>
       </c>
     </row>
@@ -469,22 +469,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cheating</t>
+          <t>pathetic</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>passed</t>
+          <t>pizza</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>bae</t>
+          <t>cute</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>stupid</t>
+          <t>fatty</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>disturb</t>
+          <t>wound</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -504,12 +504,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>sex</t>
+          <t>;)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>lazy</t>
+          <t>fuck</t>
         </is>
       </c>
     </row>
@@ -519,22 +519,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>heartbreaking</t>
+          <t>cheating</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>cake</t>
+          <t>sunflower</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>sexy</t>
+          <t>cutie</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ass</t>
+          <t>faggot</t>
         </is>
       </c>
     </row>
@@ -544,22 +544,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>death</t>
+          <t>miserable</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>cats</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>babe</t>
+          <t>sexy</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>cunt</t>
+          <t>jerk</t>
         </is>
       </c>
     </row>
@@ -569,22 +569,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>dismay</t>
+          <t>stab</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>pizza</t>
+          <t>friends</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>attractive</t>
+          <t>babe</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>hate</t>
+          <t>dork</t>
         </is>
       </c>
     </row>
@@ -599,17 +599,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>friends</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>;)</t>
+          <t>crush</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>jerk</t>
+          <t>dumb</t>
         </is>
       </c>
     </row>
@@ -619,18 +619,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>hang over</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>cute</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>bitch</t>
+          <t>schmuck</t>
         </is>
       </c>
     </row>
@@ -640,18 +644,18 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>miserable</t>
+          <t>hang over</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>love</t>
+          <t>kiss</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>suck</t>
+          <t>hate</t>
         </is>
       </c>
     </row>
@@ -661,18 +665,18 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>death</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>crush</t>
+          <t>baby</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fatty</t>
+          <t>cunt</t>
         </is>
       </c>
     </row>
@@ -682,13 +686,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>stab</t>
+          <t>tragic</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>baby</t>
+          <t>love</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -703,18 +707,18 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>tragic</t>
+          <t>terrible</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>cutie</t>
+          <t>honey</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>faggot</t>
+          <t>liptard</t>
         </is>
       </c>
     </row>
@@ -724,14 +728,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>distress</t>
+          <t>worry</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>loser</t>
+          <t>stupid</t>
         </is>
       </c>
     </row>
@@ -741,14 +745,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pathetic</t>
+          <t>devastate</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>dumb</t>
+          <t>loser</t>
         </is>
       </c>
     </row>
@@ -758,14 +762,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>wound</t>
+          <t>distress</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>dork</t>
+          <t>fat</t>
         </is>
       </c>
     </row>
@@ -775,14 +779,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>worry</t>
+          <t>disturb</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fuck</t>
+          <t>lazy</t>
         </is>
       </c>
     </row>
@@ -792,7 +796,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>depress</t>
+          <t>upset</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -805,7 +809,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>terrible</t>
+          <t>depress</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>

--- a/Rando-Database.xlsx
+++ b/Rando-Database.xlsx
@@ -394,22 +394,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mournful</t>
+          <t>devastate</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>cake</t>
+          <t>passed</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>bae</t>
+          <t>cute</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>suck</t>
+          <t>bitch</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dismay</t>
+          <t>hang over</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -429,12 +429,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>attractive</t>
+          <t>cutie</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>bitch</t>
+          <t>suck</t>
         </is>
       </c>
     </row>
@@ -444,22 +444,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>heartbreaking</t>
+          <t>disturb</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>puppies</t>
+          <t>sunflower</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>attracted</t>
+          <t>sexy</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ass</t>
+          <t>dumb</t>
         </is>
       </c>
     </row>
@@ -469,22 +469,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pathetic</t>
+          <t>stab</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>pizza</t>
+          <t>success</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>cute</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fatty</t>
+          <t>fat</t>
         </is>
       </c>
     </row>
@@ -494,22 +494,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>wound</t>
+          <t>unhappy</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>:)</t>
+          <t>cake</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>;)</t>
+          <t>baby</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fuck</t>
+          <t>fatty</t>
         </is>
       </c>
     </row>
@@ -519,22 +519,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>cheating</t>
+          <t>heartbreaking</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>sunflower</t>
+          <t>cats</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>cutie</t>
+          <t>love</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>faggot</t>
+          <t>fuck</t>
         </is>
       </c>
     </row>
@@ -544,22 +544,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>miserable</t>
+          <t>terrible</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>cats</t>
+          <t>puppies</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>sexy</t>
+          <t>babe</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>jerk</t>
+          <t>cunt</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>stab</t>
+          <t>tragic</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -579,12 +579,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>babe</t>
+          <t>;)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>dork</t>
+          <t>faggot</t>
         </is>
       </c>
     </row>
@@ -594,22 +594,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>unhappy</t>
+          <t>distress</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>:)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>crush</t>
+          <t>attractive</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>dumb</t>
+          <t>bonehead</t>
         </is>
       </c>
     </row>
@@ -619,22 +619,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>mournful</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>passed</t>
+          <t>pizza</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>sex</t>
+          <t>honey</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>schmuck</t>
+          <t>liptard</t>
         </is>
       </c>
     </row>
@@ -644,18 +644,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>hang over</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>cheating</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>flower</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>kiss</t>
+          <t>crush</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>hate</t>
+          <t>lazy</t>
         </is>
       </c>
     </row>
@@ -665,18 +669,18 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>death</t>
+          <t>miserable</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>baby</t>
+          <t>kiss</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>cunt</t>
+          <t>ass</t>
         </is>
       </c>
     </row>
@@ -686,18 +690,18 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>tragic</t>
+          <t>death</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>love</t>
+          <t>attracted</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>bonehead</t>
+          <t>schmuck</t>
         </is>
       </c>
     </row>
@@ -707,18 +711,18 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>terrible</t>
+          <t>dismay</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>honey</t>
+          <t>bae</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>liptard</t>
+          <t>dork</t>
         </is>
       </c>
     </row>
@@ -745,14 +749,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>devastate</t>
+          <t>depress</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>loser</t>
+          <t>jerk</t>
         </is>
       </c>
     </row>
@@ -762,14 +766,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>distress</t>
+          <t>upset</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fat</t>
+          <t>hate</t>
         </is>
       </c>
     </row>
@@ -779,14 +783,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>disturb</t>
+          <t>wound</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>lazy</t>
+          <t>loser</t>
         </is>
       </c>
     </row>
@@ -796,7 +800,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>upset</t>
+          <t>sad</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -809,7 +813,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>depress</t>
+          <t>pathetic</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
